--- a/teaching/math196_spring_2025/p2_inflation.xlsx
+++ b/teaching/math196_spring_2025/p2_inflation.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\gaming\Desktop\theorems\teaching\math196_spring_2025\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EF0B9460-6E02-4159-A5E3-2FE39FA5132F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2E7F9C0A-D279-4DF5-9779-F5E01DE686F6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="9600" yWindow="0" windowWidth="9600" windowHeight="10200" activeTab="1" xr2:uid="{74776953-350D-4418-8599-0C5E21CA760D}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="2" xr2:uid="{74776953-350D-4418-8599-0C5E21CA760D}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
-    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
+    <sheet name="Sheet3" sheetId="3" r:id="rId2"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="34">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="72" uniqueCount="39">
   <si>
     <t>Year</t>
   </si>
@@ -139,15 +140,31 @@
   </si>
   <si>
     <t>D</t>
+  </si>
+  <si>
+    <t>LGB</t>
+  </si>
+  <si>
+    <t>custom weights</t>
+  </si>
+  <si>
+    <t>FG c</t>
+  </si>
+  <si>
+    <t>rounded</t>
+  </si>
+  <si>
+    <t>true rounded</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="2">
-    <numFmt numFmtId="168" formatCode="0.000000000000%"/>
-    <numFmt numFmtId="169" formatCode="0.000000000000000000%"/>
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="0.000000000000%"/>
+    <numFmt numFmtId="165" formatCode="0.000000000000000000%"/>
+    <numFmt numFmtId="166" formatCode="0.000000000000000%"/>
   </numFmts>
   <fonts count="1" x14ac:knownFonts="1">
     <font>
@@ -178,11 +195,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="169" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -519,8 +537,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7DC7338-38F1-40D1-A184-DA69BDB2BB8B}">
   <dimension ref="A1:J48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I23" sqref="I23"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1133,32 +1151,32 @@
       </c>
       <c r="B27" s="1">
         <f ca="1">RAND()-0.5</f>
-        <v>-0.40314041035044934</v>
+        <v>0.19748128966528444</v>
       </c>
       <c r="C27" s="1">
         <f ca="1">RAND()-0.5</f>
-        <v>-0.2391638891408322</v>
+        <v>0.27958174999525287</v>
       </c>
       <c r="D27" s="1"/>
       <c r="E27" s="1">
         <f ca="1">B27-B$44</f>
-        <v>-0.26149820363617238</v>
+        <v>0.23621025393208839</v>
       </c>
       <c r="F27" s="1">
         <f ca="1">C27-C$44</f>
-        <v>-0.33317405885351853</v>
+        <v>0.34865628719681263</v>
       </c>
       <c r="H27" s="2">
         <f ca="1">E27*F27</f>
-        <v>8.7124417888367472E-2</v>
+        <v>8.2356190133778248E-2</v>
       </c>
       <c r="I27" s="3">
         <f ca="1">E27*E27</f>
-        <v>6.8381310504945073E-2</v>
+        <v>5.5795284062661675E-2</v>
       </c>
       <c r="J27" s="3">
         <f ca="1">F27*F27</f>
-        <v>0.11100495349292783</v>
+        <v>0.1215612066018663</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.35">
@@ -1167,31 +1185,31 @@
       </c>
       <c r="B28" s="1">
         <f t="shared" ref="B28:C42" ca="1" si="5">RAND()-0.5</f>
-        <v>-0.41763283850283894</v>
+        <v>-0.21093165981286421</v>
       </c>
       <c r="C28" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.15601653521364012</v>
+        <v>0.32606136754379778</v>
       </c>
       <c r="E28" s="1">
         <f t="shared" ref="E28:F42" ca="1" si="6">B28-B$44</f>
-        <v>-0.27599063178856198</v>
+        <v>-0.17220269554606027</v>
       </c>
       <c r="F28" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.25002670492632645</v>
+        <v>0.39513590474535754</v>
       </c>
       <c r="H28" s="2">
         <f ca="1">E28*F28</f>
-        <v>6.90050282566292E-2</v>
+        <v>-6.8043467904181879E-2</v>
       </c>
       <c r="I28" s="3">
-        <f t="shared" ref="I28:I42" ca="1" si="7">E28*E28</f>
-        <v>7.6170828835049595E-2</v>
+        <f t="shared" ref="I28:I40" ca="1" si="7">E28*E28</f>
+        <v>2.9653768353329127E-2</v>
       </c>
       <c r="J28" s="3">
         <f t="shared" ref="J28:J42" ca="1" si="8">F28*F28</f>
-        <v>6.2513353176316316E-2</v>
+        <v>0.15613238321893227</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.35">
@@ -1200,31 +1218,31 @@
       </c>
       <c r="B29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.47827663159469647</v>
+        <v>-0.23925657524690547</v>
       </c>
       <c r="C29" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.38556465024823861</v>
+        <v>-0.17877439819596019</v>
       </c>
       <c r="E29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.3366344248804195</v>
+        <v>-0.20052761098010152</v>
       </c>
       <c r="F29" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.47957481996092494</v>
+        <v>-0.10969986099440041</v>
       </c>
       <c r="H29" s="2">
-        <f t="shared" ref="H28:H42" ca="1" si="9">E29*F29</f>
-        <v>0.16144139370467669</v>
+        <f t="shared" ref="H29:H41" ca="1" si="9">E29*F29</f>
+        <v>2.1997851050056336E-2</v>
       </c>
       <c r="I29" s="3">
         <f ca="1">E29*E29</f>
-        <v>0.1133227360145708</v>
+        <v>4.0211322765386935E-2</v>
       </c>
       <c r="J29" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.22999200794055358</v>
+        <v>1.2034059502190771E-2</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.35">
@@ -1233,31 +1251,31 @@
       </c>
       <c r="B30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.11082374067293954</v>
+        <v>-0.37388395694433652</v>
       </c>
       <c r="C30" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>7.1728296275010095E-2</v>
+        <v>-0.37316984804245246</v>
       </c>
       <c r="E30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.2524659473872165</v>
+        <v>-0.33515499267753257</v>
       </c>
       <c r="F30" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.2281873437676236E-2</v>
+        <v>-0.3040953108408927</v>
       </c>
       <c r="H30" s="2">
         <f ca="1">E30*F30</f>
-        <v>-5.6254142870049853E-3</v>
+        <v>0.10191906167815139</v>
       </c>
       <c r="I30" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>6.3739054590124772E-2</v>
+        <v>0.11232886911667692</v>
       </c>
       <c r="J30" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>4.9648188389262186E-4</v>
+        <v>9.2473958075419152E-2</v>
       </c>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.35">
@@ -1266,31 +1284,31 @@
       </c>
       <c r="B31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.34802433865188764</v>
+        <v>0.22516937340317189</v>
       </c>
       <c r="C31" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.48911690055681945</v>
+        <v>-0.44116285462415228</v>
       </c>
       <c r="E31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.20638213193761068</v>
+        <v>0.26389833766997584</v>
       </c>
       <c r="F31" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39510673084413311</v>
+        <v>-0.37208831742259252</v>
       </c>
       <c r="H31" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-8.1542969454511907E-2</v>
+        <v>-9.8193488434240472E-2</v>
       </c>
       <c r="I31" s="3">
         <f ca="1">E31*E31</f>
-        <v>4.2593584383113343E-2</v>
+        <v>6.9642332624976586E-2</v>
       </c>
       <c r="J31" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.15610932875833824</v>
+        <v>0.13844971596237596</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.35">
@@ -1299,31 +1317,31 @@
       </c>
       <c r="B32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-9.2988561352640886E-2</v>
+        <v>0.35832310041923343</v>
       </c>
       <c r="C32" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.21371591499515019</v>
+        <v>6.6884026249561024E-2</v>
       </c>
       <c r="E32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.8653645361636078E-2</v>
+        <v>0.39705206468603738</v>
       </c>
       <c r="F32" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.11970574528246386</v>
+        <v>0.13595856345112081</v>
       </c>
       <c r="H32" s="2">
         <f ca="1">E32*F32</f>
-        <v>5.8241208787233375E-3</v>
+        <v>5.3982628330015138E-2</v>
       </c>
       <c r="I32" s="3">
         <f ca="1">E32*E32</f>
-        <v>2.3671772069758516E-3</v>
+        <v>0.15765034207144521</v>
       </c>
       <c r="J32" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4329465453630119E-2</v>
+        <v>1.8484730975692445E-2</v>
       </c>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.35">
@@ -1332,31 +1350,31 @@
       </c>
       <c r="B33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.32070306322589104</v>
+        <v>1.8585941443463261E-2</v>
       </c>
       <c r="C33" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25242950554474852</v>
+        <v>-0.45511985491478135</v>
       </c>
       <c r="E33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.17906085651161407</v>
+        <v>5.7314905710267219E-2</v>
       </c>
       <c r="F33" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.15841933583206219</v>
+        <v>-0.38604531771322159</v>
       </c>
       <c r="H33" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>-2.8366701962090089E-2</v>
+        <v>-2.2126150984623446E-2</v>
       </c>
       <c r="I33" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>3.2062790334672846E-2</v>
+        <v>3.284998416576822E-3</v>
       </c>
       <c r="J33" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5096685965471703E-2</v>
+        <v>0.14903098732830219</v>
       </c>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.35">
@@ -1365,31 +1383,31 @@
       </c>
       <c r="B34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.16905536577839064</v>
+        <v>0.14371045913884839</v>
       </c>
       <c r="C34" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.18707720377271997</v>
+        <v>-1.6930724314232704E-2</v>
       </c>
       <c r="E34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-2.7413159064113679E-2</v>
+        <v>0.18243942340565233</v>
       </c>
       <c r="F34" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>9.3067034060033638E-2</v>
+        <v>5.2143812887327085E-2</v>
       </c>
       <c r="H34" s="2">
         <f ca="1">E34*F34</f>
-        <v>-2.5512614083129876E-3</v>
+        <v>9.513087157336177E-3</v>
       </c>
       <c r="I34" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7.5148128987439795E-4</v>
+        <v>3.3284143212586888E-2</v>
       </c>
       <c r="J34" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>8.6614728287314618E-3</v>
+        <v>2.7189772224285782E-3</v>
       </c>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.35">
@@ -1398,31 +1416,31 @@
       </c>
       <c r="B35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.4375011630732959</v>
+        <v>-0.10720835067634071</v>
       </c>
       <c r="C35" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44446650469773963</v>
+        <v>0.37713130062381817</v>
       </c>
       <c r="E35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.29585895635901893</v>
+        <v>-6.8479386409536755E-2</v>
       </c>
       <c r="F35" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.3504563349850533</v>
+        <v>0.44620583782537793</v>
       </c>
       <c r="H35" s="2">
         <f ca="1">E35*F35</f>
-        <v>-0.10368564551808461</v>
+        <v>-3.0555901986635145E-2</v>
       </c>
       <c r="I35" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>8.7532522057847867E-2</v>
+        <v>4.6894263630266469E-3</v>
       </c>
       <c r="J35" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12281964273115589</v>
+        <v>0.19909964970944746</v>
       </c>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.35">
@@ -1431,31 +1449,31 @@
       </c>
       <c r="B36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.15090739816773613</v>
+        <v>-9.1495728368283236E-2</v>
       </c>
       <c r="C36" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.28690997911650873</v>
+        <v>-0.10695801113730585</v>
       </c>
       <c r="E36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-9.2651914534591651E-3</v>
+        <v>-5.2766764101479277E-2</v>
       </c>
       <c r="F36" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.38092014882919506</v>
+        <v>-3.7883473935746065E-2</v>
       </c>
       <c r="H36" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>3.5292981073826511E-3</v>
+        <v>1.9989883325120515E-3</v>
       </c>
       <c r="I36" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>8.5843772669252756E-5</v>
+        <v>2.7843313937411622E-3</v>
       </c>
       <c r="J36" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.1451001597840561</v>
+        <v>1.4351575974403514E-3</v>
       </c>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.35">
@@ -1464,31 +1482,31 @@
       </c>
       <c r="B37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.31740536247984852</v>
+        <v>0.13477167327474726</v>
       </c>
       <c r="C37" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.44120530010148207</v>
+        <v>-8.3706866063334662E-2</v>
       </c>
       <c r="E37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45904756919412548</v>
+        <v>0.17350063754155121</v>
       </c>
       <c r="F37" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.34719513038879574</v>
+        <v>-1.4632328861774874E-2</v>
       </c>
       <c r="H37" s="2">
         <f ca="1">E37*F37</f>
-        <v>0.15937908064101414</v>
+        <v>-2.538718386235581E-3</v>
       </c>
       <c r="I37" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0.21072467078303542</v>
+        <v>3.0102471227324727E-2</v>
       </c>
       <c r="J37" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>0.12054445856569287</v>
+        <v>2.1410504791912998E-4</v>
       </c>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.35">
@@ -1497,31 +1515,31 @@
       </c>
       <c r="B38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.3105891718854582</v>
+        <v>-0.27566359483807601</v>
       </c>
       <c r="C38" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.37904772985066337</v>
+        <v>-0.27189636763895242</v>
       </c>
       <c r="E38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.45223137859973517</v>
+        <v>-0.23693463057127206</v>
       </c>
       <c r="F38" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.28503756013797704</v>
+        <v>-0.20282183043739263</v>
       </c>
       <c r="H38" s="2">
         <f ca="1">E38*F38</f>
-        <v>0.12890292877390228</v>
+        <v>4.8055515466472805E-2</v>
       </c>
       <c r="I38" s="3">
         <f ca="1">E38*E38</f>
-        <v>0.204513219790217</v>
+        <v>5.6138019163945174E-2</v>
       </c>
       <c r="J38" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>8.1246410689410881E-2</v>
+        <v>4.1136694901974448E-2</v>
       </c>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.35">
@@ -1530,31 +1548,31 @@
       </c>
       <c r="B39" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.42245964843057093</v>
+        <v>-0.48205576465947308</v>
       </c>
       <c r="C39" s="1">
         <f ca="1">RAND()-0.5</f>
-        <v>0.13592584521756879</v>
+        <v>-0.42602344662982927</v>
       </c>
       <c r="E39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.5641018551448479</v>
+        <v>-0.44332680039266914</v>
       </c>
       <c r="F39" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>4.1915675504882455E-2</v>
+        <v>-0.35694890942826951</v>
       </c>
       <c r="H39" s="2">
         <f ca="1">E39*F39</f>
-        <v>2.3644710311953653E-2</v>
+        <v>0.15824501792048737</v>
       </c>
       <c r="I39" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>0.31821090297785898</v>
+        <v>0.19653865194640149</v>
       </c>
       <c r="J39" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1.756923853030603E-3</v>
+        <v>0.12741252394203095</v>
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.35">
@@ -1563,31 +1581,31 @@
       </c>
       <c r="B40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.42239702580606264</v>
+        <v>-0.36770344748147876</v>
       </c>
       <c r="C40" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-6.597047371014253E-2</v>
+        <v>0.13881897074716754</v>
       </c>
       <c r="E40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.28075481909178568</v>
+        <v>-0.32897448321467482</v>
       </c>
       <c r="F40" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.15998064342282886</v>
+        <v>0.20789350794872732</v>
       </c>
       <c r="H40" s="2">
         <f ca="1">E40*F40</f>
-        <v>4.4915336602363791E-2</v>
+        <v>-6.839165934111846E-2</v>
       </c>
       <c r="I40" s="3">
         <f t="shared" ca="1" si="7"/>
-        <v>7.8823268443261305E-2</v>
+        <v>0.10822421060636236</v>
       </c>
       <c r="J40" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>2.5593806269982314E-2</v>
+        <v>4.3219710647227551E-2</v>
       </c>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.35">
@@ -1596,31 +1614,31 @@
       </c>
       <c r="B41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-0.44116319089911027</v>
+        <v>0.23369818987390389</v>
       </c>
       <c r="C41" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>5.5346775427352446E-2</v>
+        <v>0.19471632512888493</v>
       </c>
       <c r="E41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.29952098418483331</v>
+        <v>0.27242715414070784</v>
       </c>
       <c r="F41" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-3.8663394285333885E-2</v>
+        <v>0.26379086233044469</v>
       </c>
       <c r="H41" s="2">
         <f t="shared" ca="1" si="9"/>
-        <v>1.1580497908269465E-2</v>
+        <v>7.1863793913006291E-2</v>
       </c>
       <c r="I41" s="3">
         <f ca="1">E41*E41</f>
-        <v>8.9712819967051161E-2</v>
+        <v>7.4216554313204994E-2</v>
       </c>
       <c r="J41" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1.4948580576631888E-3</v>
+        <v>6.9585619049039621E-2</v>
       </c>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.35">
@@ -1629,31 +1647,31 @@
       </c>
       <c r="B42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>0.25423675650575195</v>
+        <v>0.21679562254024209</v>
       </c>
       <c r="C42" s="1">
         <f t="shared" ca="1" si="5"/>
-        <v>-3.2271733606910935E-2</v>
+        <v>-0.13464396395243761</v>
       </c>
       <c r="E42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>0.39587896322002891</v>
+        <v>0.25552458680704604</v>
       </c>
       <c r="F42" s="1">
         <f t="shared" ca="1" si="6"/>
-        <v>-0.12628190331959727</v>
+        <v>-6.5569426750877818E-2</v>
       </c>
       <c r="H42" s="2">
         <f ca="1">E42*F42</f>
-        <v>-4.9992348959614095E-2</v>
+        <v>-1.6754600677692928E-2</v>
       </c>
       <c r="I42" s="3">
         <f ca="1">E42*E42</f>
-        <v>0.156720153520165</v>
+        <v>6.5292814462911603E-2</v>
       </c>
       <c r="J42" s="3">
         <f t="shared" ca="1" si="8"/>
-        <v>1.5947119106020112E-2</v>
+        <v>4.2993497244387313E-3</v>
       </c>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.35">
@@ -1662,33 +1680,33 @@
       </c>
       <c r="B44" s="1">
         <f ca="1">AVERAGE(B27:B42)</f>
-        <v>-0.14164220671427696</v>
+        <v>-3.8728964266803959E-2</v>
       </c>
       <c r="C44" s="1">
         <f ca="1">AVERAGE(C27:C42)</f>
-        <v>9.4010169712686331E-2</v>
+        <v>-6.9074537201559788E-2</v>
       </c>
       <c r="H44" s="2">
         <f ca="1">SUM(H27:H42)</f>
-        <v>0.42358247148366407</v>
+        <v>0.24332814626708785</v>
       </c>
       <c r="I44" s="2">
         <f t="shared" ref="I44:J44" ca="1" si="10">SUM(I27:I42)</f>
-        <v>1.5457123644714326</v>
+        <v>1.0398375401005582</v>
       </c>
       <c r="J44" s="2">
         <f t="shared" ca="1" si="10"/>
-        <v>1.1227071285568737</v>
+        <v>1.1772888295067261</v>
       </c>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.35">
       <c r="I45">
         <f ca="1">SQRT(I44)</f>
-        <v>1.2432668114573928</v>
+        <v>1.0197242470886716</v>
       </c>
       <c r="J45">
         <f ca="1">SQRT(J44)</f>
-        <v>1.0595787505215806</v>
+        <v>1.0850294141205232</v>
       </c>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.35">
@@ -1697,7 +1715,7 @@
       </c>
       <c r="I48">
         <f ca="1">H44/(I45*J45)</f>
-        <v>0.32154399213099677</v>
+        <v>0.2199217029596334</v>
       </c>
     </row>
   </sheetData>
@@ -1706,11 +1724,571 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC707831-C7BA-4CE4-8057-60F848CE77D2}">
+  <dimension ref="A1:J21"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="H2" sqref="H2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <cols>
+    <col min="1" max="1" width="4.81640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11.453125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="17.36328125" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="22.1796875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="22.81640625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A2">
+        <v>1995</v>
+      </c>
+      <c r="B2" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C2" s="1">
+        <v>5.6000000000000001E-2</v>
+      </c>
+      <c r="E2" s="1">
+        <f>B2-B$19</f>
+        <v>8.1249999999999725E-4</v>
+      </c>
+      <c r="F2" s="1">
+        <f>C2-C$19</f>
+        <v>-1.2500000000000011E-3</v>
+      </c>
+      <c r="H2" s="3">
+        <f>E2*E2</f>
+        <v>6.6015624999999551E-7</v>
+      </c>
+      <c r="I2" s="3">
+        <f>F2*F2</f>
+        <v>1.5625000000000028E-6</v>
+      </c>
+      <c r="J2" s="3">
+        <f>E2*F2</f>
+        <v>-1.0156249999999974E-6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A3">
+        <v>1996</v>
+      </c>
+      <c r="B3" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E3" s="1">
+        <f t="shared" ref="E3:F16" si="0">B3-B$19</f>
+        <v>8.8124999999999974E-3</v>
+      </c>
+      <c r="F3" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2500000000000029E-3</v>
+      </c>
+      <c r="H3" s="3">
+        <f t="shared" ref="H3:I17" si="1">E3*E3</f>
+        <v>7.7660156249999957E-5</v>
+      </c>
+      <c r="I3" s="3">
+        <f t="shared" si="1"/>
+        <v>1.056250000000002E-5</v>
+      </c>
+      <c r="J3" s="3">
+        <f t="shared" ref="J3:J16" si="2">E3*F3</f>
+        <v>-2.8640625000000017E-5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A4">
+        <v>1997</v>
+      </c>
+      <c r="B4" s="1">
+        <v>1.7000000000000001E-2</v>
+      </c>
+      <c r="C4" s="1">
+        <v>4.7E-2</v>
+      </c>
+      <c r="E4" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.1875000000000029E-3</v>
+      </c>
+      <c r="F4" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.0250000000000002E-2</v>
+      </c>
+      <c r="H4" s="3">
+        <f t="shared" si="1"/>
+        <v>5.1660156250000043E-5</v>
+      </c>
+      <c r="I4" s="3">
+        <f t="shared" si="1"/>
+        <v>1.0506250000000004E-4</v>
+      </c>
+      <c r="J4" s="3">
+        <f t="shared" si="2"/>
+        <v>7.3671875000000048E-5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A5">
+        <v>1998</v>
+      </c>
+      <c r="B5" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E5" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1875000000000038E-3</v>
+      </c>
+      <c r="F5" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3250000000000005E-2</v>
+      </c>
+      <c r="H5" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7035156250000065E-5</v>
+      </c>
+      <c r="I5" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7556250000000013E-4</v>
+      </c>
+      <c r="J5" s="3">
+        <f t="shared" si="2"/>
+        <v>1.0848437500000009E-4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A6">
+        <v>1999</v>
+      </c>
+      <c r="B6" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C6" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="E6" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8124999999999956E-3</v>
+      </c>
+      <c r="F6" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.7250000000000001E-2</v>
+      </c>
+      <c r="H6" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9101562499999759E-6</v>
+      </c>
+      <c r="I6" s="3">
+        <f t="shared" si="1"/>
+        <v>2.9756250000000003E-4</v>
+      </c>
+      <c r="J6" s="3">
+        <f t="shared" si="2"/>
+        <v>-4.8515624999999927E-5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A7">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C7" s="1">
+        <v>3.9E-2</v>
+      </c>
+      <c r="E7" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8124999999999983E-3</v>
+      </c>
+      <c r="F7" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8250000000000002E-2</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="1"/>
+        <v>9.6285156249999962E-5</v>
+      </c>
+      <c r="I7" s="3">
+        <f t="shared" si="1"/>
+        <v>3.3306250000000008E-4</v>
+      </c>
+      <c r="J7" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.7907812499999998E-4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A8">
+        <v>2001</v>
+      </c>
+      <c r="B8" s="1">
+        <v>1.6E-2</v>
+      </c>
+      <c r="C8" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E8" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.1875000000000038E-3</v>
+      </c>
+      <c r="F8" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000022E-4</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.7035156250000065E-5</v>
+      </c>
+      <c r="I8" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2500000000000116E-8</v>
+      </c>
+      <c r="J8" s="3">
+        <f t="shared" si="2"/>
+        <v>2.0468750000000027E-6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A9">
+        <v>2002</v>
+      </c>
+      <c r="B9" s="1">
+        <v>2.4E-2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>0.06</v>
+      </c>
+      <c r="E9" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.8750000000000364E-4</v>
+      </c>
+      <c r="F9" s="1">
+        <f t="shared" si="0"/>
+        <v>2.7499999999999955E-3</v>
+      </c>
+      <c r="H9" s="3">
+        <f t="shared" si="1"/>
+        <v>3.5156250000001364E-8</v>
+      </c>
+      <c r="I9" s="3">
+        <f t="shared" si="1"/>
+        <v>7.5624999999999755E-6</v>
+      </c>
+      <c r="J9" s="3">
+        <f t="shared" si="2"/>
+        <v>-5.1562500000000915E-7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A10">
+        <v>2003</v>
+      </c>
+      <c r="B10" s="1">
+        <v>1.9E-2</v>
+      </c>
+      <c r="C10" s="1">
+        <v>5.7000000000000002E-2</v>
+      </c>
+      <c r="E10" s="1">
+        <f t="shared" si="0"/>
+        <v>-5.1875000000000046E-3</v>
+      </c>
+      <c r="F10" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.5000000000000022E-4</v>
+      </c>
+      <c r="H10" s="3">
+        <f t="shared" si="1"/>
+        <v>2.6910156250000048E-5</v>
+      </c>
+      <c r="I10" s="3">
+        <f t="shared" si="1"/>
+        <v>6.2500000000000116E-8</v>
+      </c>
+      <c r="J10" s="3">
+        <f t="shared" si="2"/>
+        <v>1.2968750000000023E-6</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A11">
+        <v>2004</v>
+      </c>
+      <c r="B11" s="1">
+        <v>3.3000000000000002E-2</v>
+      </c>
+      <c r="C11" s="1">
+        <v>5.3999999999999999E-2</v>
+      </c>
+      <c r="E11" s="1">
+        <f t="shared" si="0"/>
+        <v>8.8124999999999974E-3</v>
+      </c>
+      <c r="F11" s="1">
+        <f t="shared" si="0"/>
+        <v>-3.2500000000000029E-3</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="1"/>
+        <v>7.7660156249999957E-5</v>
+      </c>
+      <c r="I11" s="3">
+        <f t="shared" si="1"/>
+        <v>1.056250000000002E-5</v>
+      </c>
+      <c r="J11" s="3">
+        <f t="shared" si="2"/>
+        <v>-2.8640625000000017E-5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A12">
+        <v>2005</v>
+      </c>
+      <c r="B12" s="1">
+        <v>3.4000000000000002E-2</v>
+      </c>
+      <c r="C12" s="1">
+        <v>4.9000000000000002E-2</v>
+      </c>
+      <c r="E12" s="1">
+        <f t="shared" si="0"/>
+        <v>9.8124999999999983E-3</v>
+      </c>
+      <c r="F12" s="1">
+        <f t="shared" si="0"/>
+        <v>-8.2500000000000004E-3</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="1"/>
+        <v>9.6285156249999962E-5</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="1"/>
+        <v>6.8062500000000008E-5</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>-8.0953124999999984E-5</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A13">
+        <v>2006</v>
+      </c>
+      <c r="B13" s="1">
+        <v>2.5000000000000001E-2</v>
+      </c>
+      <c r="C13" s="1">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="E13" s="1">
+        <f t="shared" si="0"/>
+        <v>8.1249999999999725E-4</v>
+      </c>
+      <c r="F13" s="1">
+        <f t="shared" si="0"/>
+        <v>-1.3250000000000005E-2</v>
+      </c>
+      <c r="H13" s="3">
+        <f t="shared" si="1"/>
+        <v>6.6015624999999551E-7</v>
+      </c>
+      <c r="I13" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7556250000000013E-4</v>
+      </c>
+      <c r="J13" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.0765624999999967E-5</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A14">
+        <v>2007</v>
+      </c>
+      <c r="B14" s="1">
+        <v>4.1000000000000002E-2</v>
+      </c>
+      <c r="C14" s="1">
+        <v>0.05</v>
+      </c>
+      <c r="E14" s="1">
+        <f t="shared" si="0"/>
+        <v>1.6812499999999998E-2</v>
+      </c>
+      <c r="F14" s="1">
+        <f t="shared" si="0"/>
+        <v>-7.2499999999999995E-3</v>
+      </c>
+      <c r="H14" s="3">
+        <f t="shared" si="1"/>
+        <v>2.8266015624999993E-4</v>
+      </c>
+      <c r="I14" s="3">
+        <f t="shared" si="1"/>
+        <v>5.256249999999999E-5</v>
+      </c>
+      <c r="J14" s="3">
+        <f t="shared" si="2"/>
+        <v>-1.2189062499999997E-4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A15">
+        <v>2008</v>
+      </c>
+      <c r="B15" s="1">
+        <v>1E-3</v>
+      </c>
+      <c r="C15" s="1">
+        <v>7.2999999999999995E-2</v>
+      </c>
+      <c r="E15" s="1">
+        <f t="shared" si="0"/>
+        <v>-2.3187500000000003E-2</v>
+      </c>
+      <c r="F15" s="1">
+        <f t="shared" si="0"/>
+        <v>1.5749999999999993E-2</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="1"/>
+        <v>5.3766015625000016E-4</v>
+      </c>
+      <c r="I15" s="3">
+        <f t="shared" si="1"/>
+        <v>2.480624999999998E-4</v>
+      </c>
+      <c r="J15" s="3">
+        <f t="shared" si="2"/>
+        <v>-3.6520312499999991E-4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A16">
+        <v>2009</v>
+      </c>
+      <c r="B16" s="1">
+        <v>2.7E-2</v>
+      </c>
+      <c r="C16" s="1">
+        <v>9.9000000000000005E-2</v>
+      </c>
+      <c r="E16" s="1">
+        <f t="shared" si="0"/>
+        <v>2.8124999999999956E-3</v>
+      </c>
+      <c r="F16" s="1">
+        <f t="shared" si="0"/>
+        <v>4.1750000000000002E-2</v>
+      </c>
+      <c r="H16" s="3">
+        <f t="shared" si="1"/>
+        <v>7.9101562499999759E-6</v>
+      </c>
+      <c r="I16" s="3">
+        <f t="shared" si="1"/>
+        <v>1.7430625000000003E-3</v>
+      </c>
+      <c r="J16" s="3">
+        <f t="shared" si="2"/>
+        <v>1.1742187499999982E-4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A17">
+        <v>2010</v>
+      </c>
+      <c r="B17" s="1">
+        <v>1.4999999999999999E-2</v>
+      </c>
+      <c r="C17" s="1">
+        <v>9.2999999999999999E-2</v>
+      </c>
+      <c r="E17" s="1">
+        <f>B17-B$19</f>
+        <v>-9.1875000000000047E-3</v>
+      </c>
+      <c r="F17" s="1">
+        <f>C17-C$19</f>
+        <v>3.5749999999999997E-2</v>
+      </c>
+      <c r="H17" s="3">
+        <f t="shared" si="1"/>
+        <v>8.441015625000008E-5</v>
+      </c>
+      <c r="I17" s="3">
+        <f t="shared" si="1"/>
+        <v>1.2780624999999997E-3</v>
+      </c>
+      <c r="J17" s="3">
+        <f>E17*F17</f>
+        <v>-3.2845312500000013E-4</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19">
+        <f>SUM(B2:B17)/16</f>
+        <v>2.4187500000000004E-2</v>
+      </c>
+      <c r="C19">
+        <f>SUM(C2:C17)/16</f>
+        <v>5.7250000000000002E-2</v>
+      </c>
+      <c r="H19" s="3">
+        <f>SUM(H2:H17)</f>
+        <v>1.4824375000000002E-3</v>
+      </c>
+      <c r="I19" s="3">
+        <f t="shared" ref="I19:J19" si="3">SUM(I2:I17)</f>
+        <v>4.5070000000000006E-3</v>
+      </c>
+      <c r="J19" s="3">
+        <f t="shared" si="3"/>
+        <v>-8.9075000000000005E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.35">
+      <c r="H21" s="4">
+        <f>J19/SQRT(H19*I19)</f>
+        <v>-0.34460681015426831</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8C7CD9E0-428A-4F16-8963-16D3735B8EA1}">
   <dimension ref="A1:N35"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="B22" sqref="B22"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1731,6 +2309,18 @@
       <c r="F1" t="s">
         <v>19</v>
       </c>
+      <c r="G1" t="s">
+        <v>36</v>
+      </c>
+      <c r="H1" t="s">
+        <v>37</v>
+      </c>
+      <c r="I1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J1" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
@@ -1752,6 +2342,21 @@
         <f>0.15*B2+0.2*C2+0.3*D2+0.35*E2</f>
         <v>100</v>
       </c>
+      <c r="G2">
+        <f>B2*$J$2+C2*$J$3+D2*$J$4+E2*$J$5</f>
+        <v>100</v>
+      </c>
+      <c r="H2">
+        <f>ROUND(G2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="I2">
+        <f>ROUND(F2,0)</f>
+        <v>100</v>
+      </c>
+      <c r="J2">
+        <v>0.2</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
@@ -1773,6 +2378,21 @@
         <f t="shared" ref="F3:F6" si="0">0.15*B3+0.2*C3+0.3*D3+0.35*E3</f>
         <v>80.099999999999994</v>
       </c>
+      <c r="G3">
+        <f t="shared" ref="G3:G6" si="1">B3*$J$2+C3*$J$3+D3*$J$4+E3*$J$5</f>
+        <v>83.2</v>
+      </c>
+      <c r="H3">
+        <f t="shared" ref="H3:H6" si="2">ROUND(G3,0)</f>
+        <v>83</v>
+      </c>
+      <c r="I3">
+        <f t="shared" ref="I3:I6" si="3">ROUND(F3,0)</f>
+        <v>80</v>
+      </c>
+      <c r="J3">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
@@ -1794,6 +2414,21 @@
         <f t="shared" si="0"/>
         <v>81.650000000000006</v>
       </c>
+      <c r="G4">
+        <f t="shared" si="1"/>
+        <v>80.849999999999994</v>
+      </c>
+      <c r="H4">
+        <f t="shared" si="2"/>
+        <v>81</v>
+      </c>
+      <c r="I4">
+        <f t="shared" si="3"/>
+        <v>82</v>
+      </c>
+      <c r="J4">
+        <v>0.3</v>
+      </c>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
@@ -1815,6 +2450,21 @@
         <f t="shared" si="0"/>
         <v>89.800000000000011</v>
       </c>
+      <c r="G5">
+        <f t="shared" si="1"/>
+        <v>90.35</v>
+      </c>
+      <c r="H5">
+        <f t="shared" si="2"/>
+        <v>90</v>
+      </c>
+      <c r="I5">
+        <f t="shared" si="3"/>
+        <v>90</v>
+      </c>
+      <c r="J5">
+        <v>0.25</v>
+      </c>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
@@ -1836,59 +2486,71 @@
         <f t="shared" si="0"/>
         <v>86.399999999999991</v>
       </c>
+      <c r="G6">
+        <f t="shared" si="1"/>
+        <v>89.05</v>
+      </c>
+      <c r="H6">
+        <f t="shared" si="2"/>
+        <v>89</v>
+      </c>
+      <c r="I6">
+        <f t="shared" si="3"/>
+        <v>86</v>
+      </c>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="B9">
         <f ca="1">RAND()</f>
-        <v>0.45138631619340763</v>
+        <v>0.56139139746361266</v>
       </c>
       <c r="C9">
-        <f t="shared" ref="C9:N9" ca="1" si="1">RAND()</f>
-        <v>0.35115872305234808</v>
+        <f t="shared" ref="C9:N9" ca="1" si="4">RAND()</f>
+        <v>0.23953059355121709</v>
       </c>
       <c r="D9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.30106979150156998</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.3541786862001125</v>
       </c>
       <c r="E9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.72626597369800561</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.72940637413185072</v>
       </c>
       <c r="F9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.82316879783365482</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.82597897114104546</v>
       </c>
       <c r="G9">
-        <f t="shared" ca="1" si="1"/>
-        <v>2.1880113427595549E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.31235768248384721</v>
       </c>
       <c r="H9">
-        <f t="shared" ca="1" si="1"/>
-        <v>9.6997659287128668E-2</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.44069475430261107</v>
       </c>
       <c r="I9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.67944652745570533</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.5736399659638135</v>
       </c>
       <c r="J9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.2320159598323317</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.87216694931688243</v>
       </c>
       <c r="K9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.77108693634624637</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.20240520049488209</v>
       </c>
       <c r="L9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.6230147974374044</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.99443549422807898</v>
       </c>
       <c r="M9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.57776947086319119</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.34400515411622479</v>
       </c>
       <c r="N9">
-        <f t="shared" ca="1" si="1"/>
-        <v>0.94989776089138034</v>
+        <f t="shared" ca="1" si="4"/>
+        <v>0.53251212003762782</v>
       </c>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.35">
@@ -1898,55 +2560,55 @@
       </c>
       <c r="B10">
         <f ca="1">100-100*EXP(B9*$A10)/EXP($A10)</f>
-        <v>97.851275523502352</v>
+        <v>95.35909231797288</v>
       </c>
       <c r="C10">
-        <f t="shared" ref="C10:N10" ca="1" si="2">100-100*EXP(C9*$A10)/EXP($A10)</f>
-        <v>98.934673582661858</v>
+        <f t="shared" ref="C10:N10" ca="1" si="5">100-100*EXP(C9*$A10)/EXP($A10)</f>
+        <v>99.512329672173436</v>
       </c>
       <c r="D10">
-        <f t="shared" ca="1" si="2"/>
-        <v>99.249744357227939</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>98.911913129572952</v>
       </c>
       <c r="E10">
-        <f t="shared" ca="1" si="2"/>
-        <v>85.282577414525591</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>84.955464961112241</v>
       </c>
       <c r="F10">
-        <f t="shared" ca="1" si="2"/>
-        <v>70.998377670344354</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>70.42223241618332</v>
       </c>
       <c r="G10">
-        <f t="shared" ca="1" si="2"/>
-        <v>99.8937190288013</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>99.188057729365028</v>
       </c>
       <c r="H10">
-        <f t="shared" ca="1" si="2"/>
-        <v>99.82018849999416</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>98.006217743744344</v>
       </c>
       <c r="I10">
-        <f t="shared" ca="1" si="2"/>
-        <v>89.395315068158197</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>94.943624371306285</v>
       </c>
       <c r="J10">
-        <f t="shared" ca="1" si="2"/>
-        <v>99.537319299793737</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>59.132348583055624</v>
       </c>
       <c r="K10">
-        <f t="shared" ca="1" si="2"/>
-        <v>79.858572967580756</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>99.623935049774161</v>
       </c>
       <c r="L10">
-        <f t="shared" ca="1" si="2"/>
-        <v>92.85599339554237</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>3.8202683673010398</v>
       </c>
       <c r="M10">
-        <f t="shared" ca="1" si="2"/>
-        <v>94.795329049888608</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>98.986706147338538</v>
       </c>
       <c r="N10">
-        <f t="shared" ca="1" si="2"/>
-        <v>29.581605663264469</v>
+        <f t="shared" ca="1" si="5"/>
+        <v>96.208525376073368</v>
       </c>
     </row>
     <row r="13" spans="1:14" x14ac:dyDescent="0.35">
@@ -1975,6 +2637,9 @@
       <c r="F15" t="s">
         <v>24</v>
       </c>
+      <c r="G15" t="s">
+        <v>34</v>
+      </c>
     </row>
     <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
@@ -1997,8 +2662,12 @@
         <f>VLOOKUP(E16,A$26:B$34,2,TRUE)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G16" t="str">
+        <f>VLOOKUP(E16,D$26:E$34,2,TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>11</v>
       </c>
@@ -2012,15 +2681,19 @@
         <v>97</v>
       </c>
       <c r="E17">
-        <f t="shared" ref="E17:E23" si="3">0.1*B17+0.3*C17+0.6*D17</f>
+        <f t="shared" ref="E17:E23" si="6">0.1*B17+0.3*C17+0.6*D17</f>
         <v>93.4</v>
       </c>
       <c r="F17" t="str">
-        <f t="shared" ref="F17:F24" si="4">VLOOKUP(E17,A$26:B$34,2,TRUE)</f>
+        <f t="shared" ref="F17:F23" si="7">VLOOKUP(E17,A$26:B$34,2,TRUE)</f>
         <v>A</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G17" t="str">
+        <f t="shared" ref="G17:G23" si="8">VLOOKUP(E17,D$26:E$34,2,TRUE)</f>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>12</v>
       </c>
@@ -2034,15 +2707,19 @@
         <v>71</v>
       </c>
       <c r="E18">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>66.8</v>
       </c>
       <c r="F18" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>C+</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G18" t="str">
+        <f t="shared" si="8"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>13</v>
       </c>
@@ -2056,15 +2733,19 @@
         <v>98</v>
       </c>
       <c r="E19">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>96.5</v>
       </c>
       <c r="F19" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>A</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G19" t="str">
+        <f t="shared" si="8"/>
+        <v>A</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>14</v>
       </c>
@@ -2078,15 +2759,19 @@
         <v>100</v>
       </c>
       <c r="E20">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>87.2</v>
       </c>
       <c r="F20" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>B+</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G20" t="str">
+        <f t="shared" si="8"/>
+        <v>B+</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>20</v>
       </c>
@@ -2100,15 +2785,19 @@
         <v>77</v>
       </c>
       <c r="E21">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>65.900000000000006</v>
       </c>
       <c r="F21" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>C</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G21" t="str">
+        <f t="shared" si="8"/>
+        <v>C+</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>21</v>
       </c>
@@ -2122,15 +2811,19 @@
         <v>63</v>
       </c>
       <c r="E22">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>53.099999999999994</v>
       </c>
       <c r="F22" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>D</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G22" t="str">
+        <f t="shared" si="8"/>
+        <v>D</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>22</v>
       </c>
@@ -2144,96 +2837,173 @@
         <v>86</v>
       </c>
       <c r="E23">
-        <f t="shared" si="3"/>
+        <f t="shared" si="6"/>
         <v>91.6</v>
       </c>
       <c r="F23" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="7"/>
         <v>A-</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="G23" t="str">
+        <f t="shared" si="8"/>
+        <v>A-</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A25">
         <v>0</v>
       </c>
       <c r="B25" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D25">
+        <f>A25-0.5</f>
+        <v>-0.5</v>
+      </c>
+      <c r="E25" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A26">
         <v>50</v>
       </c>
       <c r="B26" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D26">
+        <f t="shared" ref="D26:D34" si="9">A26-0.5</f>
+        <v>49.5</v>
+      </c>
+      <c r="E26" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A27">
         <v>56</v>
       </c>
       <c r="B27" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D27">
+        <f t="shared" si="9"/>
+        <v>55.5</v>
+      </c>
+      <c r="E27" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A28">
         <v>61</v>
       </c>
       <c r="B28" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D28">
+        <f t="shared" si="9"/>
+        <v>60.5</v>
+      </c>
+      <c r="E28" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A29">
         <v>66</v>
       </c>
       <c r="B29" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D29">
+        <f t="shared" si="9"/>
+        <v>65.5</v>
+      </c>
+      <c r="E29" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A30">
         <v>71</v>
       </c>
       <c r="B30" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D30">
+        <f t="shared" si="9"/>
+        <v>70.5</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A31">
         <v>76</v>
       </c>
       <c r="B31" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.35">
+      <c r="D31">
+        <f t="shared" si="9"/>
+        <v>75.5</v>
+      </c>
+      <c r="E31" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
       <c r="A32">
         <v>83</v>
       </c>
       <c r="B32" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D32">
+        <f t="shared" si="9"/>
+        <v>82.5</v>
+      </c>
+      <c r="E32" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A33">
         <v>88</v>
       </c>
       <c r="B33" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D33">
+        <f t="shared" si="9"/>
+        <v>87.5</v>
+      </c>
+      <c r="E33" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A34">
         <v>93</v>
       </c>
       <c r="B34" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="D34">
+        <f t="shared" si="9"/>
+        <v>92.5</v>
+      </c>
+      <c r="E34" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.35">
       <c r="A35">
+        <v>100</v>
+      </c>
+      <c r="D35">
         <v>100</v>
       </c>
     </row>
